--- a/Manufacturing Files/jlcpcbfiles/jlcpcb_bom_top.xlsx
+++ b/Manufacturing Files/jlcpcbfiles/jlcpcb_bom_top.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXE\Manufacturing Files\jlcpcbfiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXEmax\Manufacturing Files\jlcpcbfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" tabRatio="468"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="bitaxeMax" localSheetId="0">Sheet1!$A$1:$D$34</definedName>
+    <definedName name="bitaxeMax" localSheetId="0">Sheet1!$A$1:$D$26</definedName>
+    <definedName name="NerdAxe_ultra" localSheetId="1">Sheet2!$A$1:$I$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -47,36 +49,39 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" name="NerdAxe_ultra" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="65001" sourceFile="C:\Users\RogerPC\Desktop\BITMAKER\BITMAKER\Projectes\EN CURSO\BITAXE\BITAXEmax\Manufacturing Files\jlcpcbfiles\NerdAxe_ultra.csv" decimal="," thousands="." comma="1">
+      <textFields count="9">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="225">
   <si>
     <t>Footprint</t>
   </si>
   <si>
-    <t>C1, C7, C9, C19, C20, C21, C22, C23, C26, C29, C33, C42, C52</t>
-  </si>
-  <si>
     <t>0.1uF</t>
   </si>
   <si>
     <t>Capacitor_SMD:C_0402_1005Metric</t>
   </si>
   <si>
-    <t>C2655418</t>
-  </si>
-  <si>
-    <t>C2, C3, C4, C5, C6, C8, C10, C11, C12, C14, C15, C16, C17, C18, C24, C25, C27, C35, C44, C49, C50</t>
-  </si>
-  <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>C167339</t>
-  </si>
-  <si>
     <t>C13</t>
   </si>
   <si>
@@ -92,15 +97,6 @@
     <t>220uF</t>
   </si>
   <si>
-    <t>C30, C31</t>
-  </si>
-  <si>
-    <t>6.8pF</t>
-  </si>
-  <si>
-    <t>C326072</t>
-  </si>
-  <si>
     <t>C32</t>
   </si>
   <si>
@@ -158,9 +154,6 @@
     <t>C152884</t>
   </si>
   <si>
-    <t>C43, C51</t>
-  </si>
-  <si>
     <t>10uF</t>
   </si>
   <si>
@@ -194,30 +187,9 @@
     <t>C87164</t>
   </si>
   <si>
-    <t>R1, R18, R19</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
     <t>Resistor_SMD:R_0402_1005Metric</t>
   </si>
   <si>
-    <t>C279981</t>
-  </si>
-  <si>
-    <t>R2, R3, R5, R23</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>C140224</t>
-  </si>
-  <si>
-    <t>R4, R6, R9, R20, R24, R36</t>
-  </si>
-  <si>
     <t>10k</t>
   </si>
   <si>
@@ -290,42 +262,9 @@
     <t>R16</t>
   </si>
   <si>
-    <t>80.6k</t>
-  </si>
-  <si>
     <t>C323624</t>
   </si>
   <si>
-    <t>R21, R22</t>
-  </si>
-  <si>
-    <t>60.4</t>
-  </si>
-  <si>
-    <t>C137954</t>
-  </si>
-  <si>
-    <t>R25</t>
-  </si>
-  <si>
-    <t>19.1k</t>
-  </si>
-  <si>
-    <t>C881126</t>
-  </si>
-  <si>
-    <t>R26, R27</t>
-  </si>
-  <si>
-    <t>R28, R29</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>C172039</t>
-  </si>
-  <si>
     <t>U2</t>
   </si>
   <si>
@@ -341,39 +280,6 @@
     <t>U3</t>
   </si>
   <si>
-    <t>SN74AXC1T45DBVR</t>
-  </si>
-  <si>
-    <t>bitaxe:SN74AXC1T45</t>
-  </si>
-  <si>
-    <t>C2677376</t>
-  </si>
-  <si>
-    <t>U11</t>
-  </si>
-  <si>
-    <t>RT9080-33GJ5</t>
-  </si>
-  <si>
-    <t>bitaxe:RT9080-33GJ5</t>
-  </si>
-  <si>
-    <t>C2959864</t>
-  </si>
-  <si>
-    <t>Y1</t>
-  </si>
-  <si>
-    <t>32.768kHz</t>
-  </si>
-  <si>
-    <t>bitaxe:SC32S-7PF20PPM</t>
-  </si>
-  <si>
-    <t>C2650468</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -381,6 +287,462 @@
   </si>
   <si>
     <t>JLCPCB part</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>DK</t>
+  </si>
+  <si>
+    <t>JLC Part</t>
+  </si>
+  <si>
+    <t>LCSC Part</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>PARTNO</t>
+  </si>
+  <si>
+    <t>Cdad</t>
+  </si>
+  <si>
+    <t>C1, C7, C9, C19, C20, C22, C23, C29, C33, C42</t>
+  </si>
+  <si>
+    <t>1292-1639-1-ND</t>
+  </si>
+  <si>
+    <t>C1525</t>
+  </si>
+  <si>
+    <t>0402X104K100CT</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>587-5514-1-ND</t>
+  </si>
+  <si>
+    <t>C113791</t>
+  </si>
+  <si>
+    <t>EMK105BJ105MV-F</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>718-1028-1-ND</t>
+  </si>
+  <si>
+    <t>293D337X9010E2TE3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>C28</t>
+  </si>
+  <si>
+    <t>Capacitor_SMD:CP_Elec_6.3x7.7</t>
+  </si>
+  <si>
+    <t>732-8422-1-ND</t>
+  </si>
+  <si>
+    <t>865080345012</t>
+  </si>
+  <si>
+    <t>1276-1566-1-ND</t>
+  </si>
+  <si>
+    <t>CL05B471KB5NNNC</t>
+  </si>
+  <si>
+    <t>490-6539-1-ND</t>
+  </si>
+  <si>
+    <t>GRM32ER61C476KE15L</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1276-6471-1-ND</t>
+  </si>
+  <si>
+    <t>CL21B105KOFNNNG</t>
+  </si>
+  <si>
+    <t>1276-1552-1-ND</t>
+  </si>
+  <si>
+    <t>CL05B332KB5NNNC</t>
+  </si>
+  <si>
+    <t>311-1114-1-ND</t>
+  </si>
+  <si>
+    <t>CC0805JRNPO9BN181</t>
+  </si>
+  <si>
+    <t>311-1128-1-ND</t>
+  </si>
+  <si>
+    <t>CC0805KRX7R9BB152</t>
+  </si>
+  <si>
+    <t>C43</t>
+  </si>
+  <si>
+    <t>1276-1096-1-ND</t>
+  </si>
+  <si>
+    <t>CL21A106KOQNNNE</t>
+  </si>
+  <si>
+    <t>1292-1580-1-ND</t>
+  </si>
+  <si>
+    <t>0805B471K500CT</t>
+  </si>
+  <si>
+    <t>P16200CT-ND</t>
+  </si>
+  <si>
+    <t>2R5TPE220MAFB</t>
+  </si>
+  <si>
+    <t>445-6008-1-ND</t>
+  </si>
+  <si>
+    <t>C3216X5R0J107M160AB</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC-044K-D025</t>
+  </si>
+  <si>
+    <t>lcsc:DC-IN-TH_DC-044K-D025</t>
+  </si>
+  <si>
+    <t>Extended Part</t>
+  </si>
+  <si>
+    <t>C963204</t>
+  </si>
+  <si>
+    <t>G-Switch(品赞)</t>
+  </si>
+  <si>
+    <t>H1-H4</t>
+  </si>
+  <si>
+    <t>AlignmentHole</t>
+  </si>
+  <si>
+    <t>MountingHole:MountingHole_2.2mm_M2</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/dp/B07MDFS1YS</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>H5, H6</t>
+  </si>
+  <si>
+    <t>MountingHole</t>
+  </si>
+  <si>
+    <t>MountingHole:MountingHole_3.5mm</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>J3</t>
+  </si>
+  <si>
+    <t>Conn_01x05</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x05_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>Conn_01x04</t>
+  </si>
+  <si>
+    <t>bitaxe:470531000</t>
+  </si>
+  <si>
+    <t>WM4330-ND</t>
+  </si>
+  <si>
+    <t>0470531000</t>
+  </si>
+  <si>
+    <t>J7</t>
+  </si>
+  <si>
+    <t>Conn_01x02</t>
+  </si>
+  <si>
+    <t>Connector_PinHeader_2.54mm:PinHeader_1x02_P2.54mm_Vertical</t>
+  </si>
+  <si>
+    <t>L1</t>
+  </si>
+  <si>
+    <t>150nH</t>
+  </si>
+  <si>
+    <t>TPS40305_supply:FP1005R1-R15-R</t>
+  </si>
+  <si>
+    <t>513-1568-1-ND</t>
+  </si>
+  <si>
+    <t>FP1005R1-R15-R</t>
+  </si>
+  <si>
+    <t>Q1, Q2</t>
+  </si>
+  <si>
+    <t>CSD17311Q5</t>
+  </si>
+  <si>
+    <t>TPS40305_supply:CSD17311Q5</t>
+  </si>
+  <si>
+    <t>296-27625-1-ND</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>5.6k</t>
+  </si>
+  <si>
+    <t>13-RC0402FR-135K6LCT-ND</t>
+  </si>
+  <si>
+    <t>C365033</t>
+  </si>
+  <si>
+    <t>RC0402FR-135K6L</t>
+  </si>
+  <si>
+    <t>R4, R9</t>
+  </si>
+  <si>
+    <t>311-10KJRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402JR-0710KL</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100RCT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT100R</t>
+  </si>
+  <si>
+    <t>311-3.83KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-073K83L</t>
+  </si>
+  <si>
+    <t>311-100KJRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402JR-07100KL</t>
+  </si>
+  <si>
+    <t>RMCF0402FT4K12CT-ND</t>
+  </si>
+  <si>
+    <t>RMCF0402FT4K12</t>
+  </si>
+  <si>
+    <t>311-1.33KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-071K33L</t>
+  </si>
+  <si>
+    <t>311-4.99KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-074K99L</t>
+  </si>
+  <si>
+    <t>311-3.32KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-073K32L</t>
+  </si>
+  <si>
+    <t>80k</t>
+  </si>
+  <si>
+    <t>311-80.6KLRCT-ND</t>
+  </si>
+  <si>
+    <t>RC0402FR-0780K6L</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>DNP</t>
+  </si>
+  <si>
+    <t>TP1-TP7, TP9, TP11-TP16, TP20, TP34-TP47</t>
+  </si>
+  <si>
+    <t>TestPoint</t>
+  </si>
+  <si>
+    <t>TestPoint:TestPoint_Pad_D1.5mm</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>25MHz</t>
+  </si>
+  <si>
+    <t>bitaxe:O 25,0-JO32-B-1V3-1-T1-LF</t>
+  </si>
+  <si>
+    <t>1908-O250-JO32-B-1V3-1-T1-LFCT-ND</t>
+  </si>
+  <si>
+    <t>O 25,0-JO32-B-1V3-1-T1-LF</t>
+  </si>
+  <si>
+    <t>296-21930-1-ND</t>
+  </si>
+  <si>
+    <t>T-Display-S3</t>
+  </si>
+  <si>
+    <t>bitaxe:T-Display-S3</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>MCP1824T-1802E</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_SMD:SOT-23-5</t>
+  </si>
+  <si>
+    <t>MCP1824T-1802E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>MCP1824T-1802E/OT</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>MCP1824T-0802E</t>
+  </si>
+  <si>
+    <t>MCP1824T-0802E/OTCT-ND</t>
+  </si>
+  <si>
+    <t>MCP1824T-0802E/OT</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>EMC2101</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-8_3x3mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>EMC2101-R-ACZL-CT-ND</t>
+  </si>
+  <si>
+    <t>EMC2101-R-ACZL-TR</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>INA260</t>
+  </si>
+  <si>
+    <t>Package_SO:TSSOP-16_4.4x5mm_P0.65mm</t>
+  </si>
+  <si>
+    <t>296-47777-1-ND</t>
+  </si>
+  <si>
+    <t>INA260AIPWR</t>
+  </si>
+  <si>
+    <t>U9</t>
+  </si>
+  <si>
+    <t>TPS40305</t>
+  </si>
+  <si>
+    <t>TPS40305_supply:TPS40305</t>
+  </si>
+  <si>
+    <t>296-37445-1-ND</t>
+  </si>
+  <si>
+    <t>C140285</t>
+  </si>
+  <si>
+    <t>TPS40305DRCR</t>
+  </si>
+  <si>
+    <t>U10</t>
+  </si>
+  <si>
+    <t>DS4432U+</t>
+  </si>
+  <si>
+    <t>DS4432U+-ND</t>
+  </si>
+  <si>
+    <t>U14</t>
+  </si>
+  <si>
+    <t>BM1366_mode0</t>
+  </si>
+  <si>
+    <t>bitaxe:BM1366</t>
+  </si>
+  <si>
+    <t>C2,C3,C4,C5,C6, C8, C10,C11,C12, C14,C15,C16,C17,C18, C24, C25, C35, C44</t>
   </si>
 </sst>
 </file>
@@ -453,6 +815,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="bitaxeMax" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="NerdAxe_ultra" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,494 +1084,1381 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.08984375" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" customWidth="1"/>
     <col min="4" max="4" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="34.90625" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="D4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+      <c r="B26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="C28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="1" t="s">
+      <c r="C30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="1" t="s">
+      <c r="I37" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>106</v>
+      <c r="B38" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
